--- a/fhir/conceptmap-obs-code-to-value-type.xlsx
+++ b/fhir/conceptmap-obs-code-to-value-type.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="74">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -218,6 +218,24 @@
   </si>
   <si>
     <t>CAT score;Pt</t>
+  </si>
+  <si>
+    <t>MCS88192</t>
+  </si>
+  <si>
+    <t>Skridt per dag;Pt</t>
+  </si>
+  <si>
+    <t>MCS88193</t>
+  </si>
+  <si>
+    <t>Skridt per uge;Pt</t>
+  </si>
+  <si>
+    <t>MCS88194</t>
+  </si>
+  <si>
+    <t>Skridt;Pt</t>
   </si>
 </sst>
 </file>
@@ -656,7 +674,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -849,6 +867,57 @@
         <v>38</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/fhir/conceptmap-obs-code-to-value-type.xlsx
+++ b/fhir/conceptmap-obs-code-to-value-type.xlsx
@@ -9,12 +9,13 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Mapping Table 0" r:id="rId4" sheetId="2"/>
     <sheet name="Mapping Table 1" r:id="rId5" sheetId="3"/>
+    <sheet name="Mapping Table 2" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="86">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -239,6 +240,39 @@
   </si>
   <si>
     <t>Skridt;Pt</t>
+  </si>
+  <si>
+    <t>http://loinc.org</t>
+  </si>
+  <si>
+    <t>39126-8</t>
+  </si>
+  <si>
+    <t>Length of Wound</t>
+  </si>
+  <si>
+    <t>39125-0</t>
+  </si>
+  <si>
+    <t>Width of Wound</t>
+  </si>
+  <si>
+    <t>39127-6</t>
+  </si>
+  <si>
+    <t>Depth of Wound</t>
+  </si>
+  <si>
+    <t>89260-4</t>
+  </si>
+  <si>
+    <t>Area of wound</t>
+  </si>
+  <si>
+    <t>94083-3</t>
+  </si>
+  <si>
+    <t>Wound volume</t>
   </si>
 </sst>
 </file>
@@ -924,4 +958,136 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/fhir/conceptmap-obs-code-to-value-type.xlsx
+++ b/fhir/conceptmap-obs-code-to-value-type.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.4.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/conceptmap-obs-code-to-value-type.xlsx
+++ b/fhir/conceptmap-obs-code-to-value-type.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="90">
   <si>
     <t>Property</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.1</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -116,15 +116,30 @@
     <t>http://hl7.org/fhir/data-types</t>
   </si>
   <si>
+    <t>DNK05472</t>
+  </si>
+  <si>
+    <t>Blodtryk systolisk;Arm</t>
+  </si>
+  <si>
+    <t>source-is-broader-than-target</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>DNK05473</t>
+  </si>
+  <si>
+    <t>Blodtryk diastolisk;Arm</t>
+  </si>
+  <si>
     <t>NPU03011</t>
   </si>
   <si>
     <t>O2 sat.;Hb(aB)</t>
   </si>
   <si>
-    <t>source-is-broader-than-target</t>
-  </si>
-  <si>
     <t>decimal</t>
   </si>
   <si>
@@ -132,9 +147,6 @@
   </si>
   <si>
     <t>Puls;Hjerte</t>
-  </si>
-  <si>
-    <t>integer</t>
   </si>
   <si>
     <t>NPU03804</t>
@@ -545,7 +557,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -613,27 +625,27 @@
         <v>35</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="B5" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="C5" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
@@ -647,10 +659,10 @@
         <v>35</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
@@ -664,10 +676,10 @@
         <v>35</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
@@ -698,10 +710,44 @@
         <v>35</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -736,7 +782,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>31</v>
@@ -753,206 +799,206 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -987,7 +1033,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>31</v>
@@ -1004,87 +1050,87 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/conceptmap-obs-code-to-value-type.xlsx
+++ b/fhir/conceptmap-obs-code-to-value-type.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/conceptmap-obs-code-to-value-type.xlsx
+++ b/fhir/conceptmap-obs-code-to-value-type.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="84">
   <si>
     <t>Property</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -137,7 +137,7 @@
     <t>NPU03011</t>
   </si>
   <si>
-    <t>O2 sat.;Hb(aB)</t>
+    <t>Hb(Fe; O2-bind.; aB)—Oxygen(O2); mætn. = ?</t>
   </si>
   <si>
     <t>decimal</t>
@@ -146,13 +146,13 @@
     <t>NPU21692</t>
   </si>
   <si>
-    <t>Puls;Hjerte</t>
+    <t>Hjerte—Systole; frekv. = ? × 1/min</t>
   </si>
   <si>
     <t>NPU03804</t>
   </si>
   <si>
-    <t>Legeme vægt; Pt</t>
+    <t>Pt—Legeme; masse = ? kg</t>
   </si>
   <si>
     <t>NPU27281</t>
@@ -173,12 +173,6 @@
     <t>Pt—Legeme; temp. = ? °C</t>
   </si>
   <si>
-    <t>NPU19748</t>
-  </si>
-  <si>
-    <t>P—C-reaktivt protein; massek. = ? mg/L</t>
-  </si>
-  <si>
     <t>urn:oid:1.2.208.184.100.8</t>
   </si>
   <si>
@@ -198,18 +192,6 @@
   </si>
   <si>
     <t>FEV1/FVC;Lunge</t>
-  </si>
-  <si>
-    <t>MCS88019</t>
-  </si>
-  <si>
-    <t>Blodtryk hjemme systolisk;Arm</t>
-  </si>
-  <si>
-    <t>MCS88020</t>
-  </si>
-  <si>
-    <t>Blodtryk hjemme diastolisk;Arm</t>
   </si>
   <si>
     <t>MCS88021</t>
@@ -557,7 +539,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -733,23 +715,6 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="E11" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -757,7 +722,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -782,7 +747,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>31</v>
@@ -799,10 +764,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>35</v>
@@ -816,10 +781,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>35</v>
@@ -833,10 +798,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>35</v>
@@ -850,10 +815,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>35</v>
@@ -867,10 +832,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>35</v>
@@ -884,10 +849,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>35</v>
@@ -901,10 +866,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>35</v>
@@ -918,10 +883,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>35</v>
@@ -935,10 +900,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>35</v>
@@ -952,10 +917,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>35</v>
@@ -964,40 +929,6 @@
         <v>36</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="E13" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="E14" t="s" s="2">
         <v>36</v>
       </c>
     </row>
@@ -1033,7 +964,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>31</v>
@@ -1050,10 +981,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>35</v>
@@ -1067,10 +998,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>35</v>
@@ -1084,10 +1015,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>35</v>
@@ -1101,10 +1032,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>35</v>
@@ -1118,10 +1049,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>35</v>

--- a/fhir/conceptmap-obs-code-to-value-type.xlsx
+++ b/fhir/conceptmap-obs-code-to-value-type.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/conceptmap-obs-code-to-value-type.xlsx
+++ b/fhir/conceptmap-obs-code-to-value-type.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/conceptmap-obs-code-to-value-type.xlsx
+++ b/fhir/conceptmap-obs-code-to-value-type.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/conceptmap-obs-code-to-value-type.xlsx
+++ b/fhir/conceptmap-obs-code-to-value-type.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
